--- a/Tester Results/TEST_TOP_TEN.xlsx
+++ b/Tester Results/TEST_TOP_TEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,24 +488,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>914.5</v>
+        <v>416</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003309579419531099</v>
+        <v>0.02284220143734341</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.003251122413952952</v>
+        <v>0.02251127796471279</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -521,33 +521,33 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.4112654320987654</v>
+        <v>0.3301127214170693</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7666666666666693</v>
+        <v>-30.77626140633384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>941.5</v>
+        <v>853</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003618647162627166</v>
+        <v>0.0099800429795172</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.0003535553487708839</v>
+        <v>0.009820543828851872</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,52 +563,52 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.4529320987654322</v>
+        <v>-0.3735909822866346</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9240740740740776</v>
+        <v>28.14803918411168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.710889477060928</v>
+        <v>478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01007013107545046</v>
+        <v>0.02168335053511856</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.003721270674551191</v>
+        <v>0.02139131675050924</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.6868491871750042</v>
+        <v>0.3190883190883191</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1145796814316739</v>
+        <v>-19.02877492877494</v>
       </c>
     </row>
     <row r="5">
@@ -619,19 +619,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>883.5</v>
+        <v>914.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007059101550412708</v>
+        <v>0.003309579419531099</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.006938634220435131</v>
+        <v>0.003251122413952952</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.3634259259259258</v>
+        <v>-0.4112654320987654</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2962962962962976</v>
+        <v>0.7666666666666693</v>
       </c>
     </row>
     <row r="6">
@@ -661,38 +661,332 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0003618647162627166</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003535553487708839</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.4529320987654322</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9240740740740776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>463</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04576783585618472</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04518356364957534</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2854938271604939</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-7.782407407407412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>391</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00280302378995304</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.002755054749030001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4207407407407407</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-19.14172839506172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.513962043189032e-05</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.434149222123235e-05</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.5822222222222222</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.91196049382717</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>May20</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>883.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.007059101550412708</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.006938634220435131</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.3634259259259258</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.2962962962962976</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.006795668520630508</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.006685675302743306</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3865740740740741</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-22.67160493827161</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>379</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.003650961021094545</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.003588280051067788</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4151234567901234</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-6.162679012345681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>-2.844176441852304</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.007101437642927467</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>t-test</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.00334015167274071</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.719182930679012</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.1253039440239752</v>
+      <c r="D13" t="n">
+        <v>359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001788061142657725</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001755449013430172</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4459876543209876</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2480.932794753087</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_TOP_TEN.xlsx
+++ b/Tester Results/TEST_TOP_TEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,14 +540,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>853</v>
+        <v>414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0099800429795172</v>
+        <v>0.02154596577155127</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.009820543828851872</v>
+        <v>0.02123146152506021</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.3735909822866346</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J3" t="n">
-        <v>28.14803918411168</v>
+        <v>-30.77481092324209</v>
       </c>
     </row>
     <row r="4">
@@ -577,19 +577,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>478</v>
+        <v>853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02168335053511856</v>
+        <v>0.0099800429795172</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.02139131675050924</v>
+        <v>0.009820543828851872</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -605,33 +605,33 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.3190883190883191</v>
+        <v>-0.3735909822866346</v>
       </c>
       <c r="J4" t="n">
-        <v>-19.02877492877494</v>
+        <v>28.14803918411168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>914.5</v>
+        <v>478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003309579419531099</v>
+        <v>0.02168335053511856</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.003251122413952952</v>
+        <v>0.02139131675050924</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -647,33 +647,33 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-0.4112654320987654</v>
+        <v>0.3190883190883191</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7666666666666693</v>
+        <v>-19.02877492877494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>941.5</v>
+        <v>480</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003618647162627166</v>
+        <v>0.0228880577186383</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.0003535553487708839</v>
+        <v>0.02258195273201235</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,33 +689,33 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-0.4529320987654322</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9240740740740776</v>
+        <v>-18.57770773979107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04576783585618472</v>
+        <v>0.03943743211826794</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.04518356364957534</v>
+        <v>0.03894860199009031</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.2854938271604939</v>
+        <v>0.2863247863247863</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.782407407407412</v>
+        <v>-16.22047958214625</v>
       </c>
     </row>
     <row r="8">
@@ -745,19 +745,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>391</v>
+        <v>914.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00280302378995304</v>
+        <v>0.003309579419531099</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.002755054749030001</v>
+        <v>0.003251122413952952</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.4207407407407407</v>
+        <v>-0.4112654320987654</v>
       </c>
       <c r="J8" t="n">
-        <v>-19.14172839506172</v>
+        <v>0.7666666666666693</v>
       </c>
     </row>
     <row r="9">
@@ -787,19 +787,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1068</v>
+        <v>941.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3.513962043189032e-05</v>
+        <v>0.0003618647162627166</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.434149222123235e-05</v>
+        <v>0.0003535553487708839</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.5822222222222222</v>
+        <v>-0.4529320987654322</v>
       </c>
       <c r="J9" t="n">
-        <v>15.91196049382717</v>
+        <v>0.9240740740740776</v>
       </c>
     </row>
     <row r="10">
@@ -829,19 +829,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>883.5</v>
+        <v>463</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007059101550412708</v>
+        <v>0.04576783585618472</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.006938634220435131</v>
+        <v>0.04518356364957534</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-0.3634259259259258</v>
+        <v>0.2854938271604939</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2962962962962976</v>
+        <v>-7.782407407407412</v>
       </c>
     </row>
     <row r="11">
@@ -871,19 +871,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>397.5</v>
+        <v>457</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006795668520630508</v>
+        <v>0.03916993919656298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.006685675302743306</v>
+        <v>0.03865786675392803</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.3865740740740741</v>
+        <v>0.2947530864197531</v>
       </c>
       <c r="J11" t="n">
-        <v>-22.67160493827161</v>
+        <v>-7.805356481481475</v>
       </c>
     </row>
     <row r="12">
@@ -913,19 +913,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003650961021094545</v>
+        <v>0.00280302378995304</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.003588280051067788</v>
+        <v>0.002755054749030001</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.4151234567901234</v>
+        <v>0.4207407407407407</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.162679012345681</v>
+        <v>-19.14172839506172</v>
       </c>
     </row>
     <row r="13">
@@ -955,38 +955,374 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>403</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004211149108151539</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.004141648701999562</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.402962962962963</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-18.9594302469136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>405</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00450034269310209</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.004426525857919832</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-18.30845123456793</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.513962043189032e-05</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.434149222123235e-05</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.5822222222222222</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.91196049382717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>May20</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>881.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.007559970336587462</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.007431852506589153</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.3603395061728396</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.6074074074074076</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.006795668520630508</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.006685675302743306</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3865740740740741</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-22.67530864197532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>402</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00786471608941328</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0.007739307026355161</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3796296296296297</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-20.96387345679013</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>411</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01045554675832951</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01029379490363377</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3657407407407407</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-20.29429320987654</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>392</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.005673378969279482</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.005579904528406407</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-9.131777777777778</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D21" t="n">
         <v>359</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E21" t="n">
         <v>0.001788061142657725</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>0.001755449013430172</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0.4459876543209876</v>
       </c>
-      <c r="J13" t="n">
-        <v>-2480.932794753087</v>
+      <c r="J21" t="n">
+        <v>-2476.63275771605</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_TOP_TEN.xlsx
+++ b/Tester Results/TEST_TOP_TEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>416</v>
+        <v>835.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02284220143734341</v>
+        <v>0.04171317940343678</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.02251127796471279</v>
+        <v>0.0413376282477426</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3301127214170693</v>
+        <v>0.2452574525745257</v>
       </c>
       <c r="J2" t="n">
-        <v>-30.77626140633384</v>
+        <v>-15.48709725986144</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>414</v>
+        <v>829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02154596577155127</v>
+        <v>0.03705856108034603</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.02123146152506021</v>
+        <v>0.03671895008755236</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2511291779584462</v>
       </c>
       <c r="J3" t="n">
-        <v>-30.77481092324209</v>
+        <v>-14.56908769948812</v>
       </c>
     </row>
     <row r="4">
@@ -577,19 +577,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>853</v>
+        <v>741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0099800429795172</v>
+        <v>0.006026158175578555</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.009820543828851872</v>
+        <v>0.005957496489216513</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-0.3735909822866346</v>
+        <v>0.3306233062330624</v>
       </c>
       <c r="J4" t="n">
-        <v>28.14803918411168</v>
+        <v>-16.5737864348088</v>
       </c>
     </row>
     <row r="5">
@@ -619,19 +619,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>478</v>
+        <v>1413</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02168335053511856</v>
+        <v>0.02170445140195236</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.02139131675050924</v>
+        <v>0.02149031774791948</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.3190883190883191</v>
+        <v>-0.2764227642276422</v>
       </c>
       <c r="J5" t="n">
-        <v>-19.02877492877494</v>
+        <v>8.352819858476366</v>
       </c>
     </row>
     <row r="6">
@@ -661,19 +661,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>480</v>
+        <v>730.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0228880577186383</v>
+        <v>0.01217464933483381</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.02258195273201235</v>
+        <v>0.01204121394733533</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.3062678062678063</v>
       </c>
       <c r="J6" t="n">
-        <v>-18.57770773979107</v>
+        <v>-30.48041310541311</v>
       </c>
     </row>
     <row r="7">
@@ -703,19 +703,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>501</v>
+        <v>740</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03943743211826794</v>
+        <v>0.01497304391439934</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.03894860199009031</v>
+        <v>0.01481282322575418</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -731,33 +731,33 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.2863247863247863</v>
+        <v>0.2972459639126306</v>
       </c>
       <c r="J7" t="n">
-        <v>-16.22047958214625</v>
+        <v>-29.99398195631528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>914.5</v>
+        <v>773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003309579419531099</v>
+        <v>0.02954760560044102</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.003251122413952952</v>
+        <v>0.02925781483404654</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -773,33 +773,33 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.4112654320987654</v>
+        <v>0.2659069325735992</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7666666666666693</v>
+        <v>-30.7165035612536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>941.5</v>
+        <v>1367</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003618647162627166</v>
+        <v>0.01465411529372505</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.0003535553487708839</v>
+        <v>0.01449690821768239</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-0.4529320987654322</v>
+        <v>-0.2981956315289649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9240740740740776</v>
+        <v>24.75800332383666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>463</v>
+        <v>695.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04576783585618472</v>
+        <v>0.01124212803575645</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.04518356364957534</v>
+        <v>0.01110858204409551</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -857,33 +857,33 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.2854938271604939</v>
+        <v>0.3038038038038038</v>
       </c>
       <c r="J10" t="n">
-        <v>-7.782407407407412</v>
+        <v>-1.728845512178843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>457</v>
+        <v>723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03916993919656298</v>
+        <v>0.02601338240813611</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.03865786675392803</v>
+        <v>0.02574399901385685</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -899,33 +899,33 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.2947530864197531</v>
+        <v>0.2762762762762763</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.805356481481475</v>
+        <v>-18.51426426426428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>391</v>
+        <v>730</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00280302378995304</v>
+        <v>0.03005095673124481</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.002755054749030001</v>
+        <v>0.02974586544170468</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -941,33 +941,33 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.4207407407407407</v>
+        <v>0.2692692692692693</v>
       </c>
       <c r="J12" t="n">
-        <v>-19.14172839506172</v>
+        <v>-17.62986011011012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>403</v>
+        <v>734.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004211149108151539</v>
+        <v>0.03291778624052341</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.004141648701999562</v>
+        <v>0.03258786344453882</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.402962962962963</v>
+        <v>0.2647647647647647</v>
       </c>
       <c r="J13" t="n">
-        <v>-18.9594302469136</v>
+        <v>-16.89614631297962</v>
       </c>
     </row>
     <row r="14">
@@ -997,19 +997,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>405</v>
+        <v>1305.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00450034269310209</v>
+        <v>0.01248872609769634</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.004426525857919832</v>
+        <v>0.01233188928853319</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.4</v>
+        <v>-0.2724171539961013</v>
       </c>
       <c r="J14" t="n">
-        <v>-18.30845123456793</v>
+        <v>0.4748538011695942</v>
       </c>
     </row>
     <row r="15">
@@ -1044,14 +1044,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1068</v>
+        <v>710</v>
       </c>
       <c r="E15" t="n">
-        <v>3.513962043189032e-05</v>
+        <v>0.01235020491712718</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.434149222123235e-05</v>
+        <v>0.01221257175311668</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1067,10 +1067,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-0.5822222222222222</v>
+        <v>0.3079922027290448</v>
       </c>
       <c r="J15" t="n">
-        <v>15.91196049382717</v>
+        <v>-12.43029564652369</v>
       </c>
     </row>
     <row r="16">
@@ -1081,19 +1081,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>881.5</v>
+        <v>720</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007559970336587462</v>
+        <v>0.01541146463337889</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.007431852506589153</v>
+        <v>0.01524408881152276</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-0.3603395061728396</v>
+        <v>0.2982456140350878</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.6074074074074076</v>
+        <v>-12.38295207927227</v>
       </c>
     </row>
     <row r="17">
@@ -1123,19 +1123,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>397.5</v>
+        <v>732</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006795668520630508</v>
+        <v>0.0199446850346314</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.006685675302743306</v>
+        <v>0.01973482039479522</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1151,178 +1151,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.3865740740740741</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="J17" t="n">
-        <v>-22.67530864197532</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>402</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.00786471608941328</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0.007739307026355161</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0.3796296296296297</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-20.96387345679013</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>411</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01045554675832951</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0.01029379490363377</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0.3657407407407407</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-20.29429320987654</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>392</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.005673378969279482</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0.005579904528406407</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0.3950617283950617</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-9.131777777777778</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>359</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.001788061142657725</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.001755449013430172</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0.4459876543209876</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-2476.63275771605</v>
+        <v>-12.24970402859002</v>
       </c>
     </row>
   </sheetData>
